--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSBTE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590978EA-FCCC-4E3E-93B8-30299AA27AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C3DE4-4DE5-4A18-9EE6-74FADAD43D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90DD5EF6-5DDC-42E6-A950-064E031C2B87}"/>
   </bookViews>
@@ -236,16 +236,16 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>RollNo</t>
-  </si>
-  <si>
-    <t>EnrollmentNo</t>
-  </si>
-  <si>
     <t>StudentName</t>
   </si>
   <si>
     <t>IT_SIXTHSEM</t>
+  </si>
+  <si>
+    <t>RollNumber</t>
+  </si>
+  <si>
+    <t>EnrollmentNumber</t>
   </si>
 </sst>
 </file>
@@ -302,24 +302,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -338,42 +325,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,26 +686,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCF43-5B25-4DC7-A125-BEC5ACEEF9B7}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>65</v>
@@ -739,910 +715,910 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>23110220391</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>23110220392</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>23110220393</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>23110220394</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>23110220396</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>23110220397</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>23110220398</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
         <v>23110220399</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
         <v>23110220400</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
         <v>23110220401</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>23110220402</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
         <v>23110220403</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
         <v>23110220404</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
         <v>23110220405</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
         <v>23110220406</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
         <v>23110220407</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
         <v>23110220408</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
         <v>23110220409</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
         <v>23110220411</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
         <v>23110220412</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
         <v>23110220414</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
         <v>23110220416</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
         <v>23110220418</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
         <v>23110220419</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
         <v>23110220420</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
         <v>23110220421</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
         <v>23110220422</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
         <v>23110220423</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
         <v>23110220424</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
         <v>23110220425</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
         <v>23110220426</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
         <v>23110220428</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
         <v>23110220429</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
         <v>23110220430</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
         <v>23110220431</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
         <v>23110220432</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
         <v>23110220433</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
         <v>23110220434</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
         <v>23110220435</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
         <v>23110220437</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D41" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
         <v>23110220438</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
         <v>23110220439</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
         <v>23110220440</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
         <v>23110220441</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
         <v>23110220442</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
         <v>23110220443</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
         <v>23110220444</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
         <v>23110220445</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
         <v>23110220446</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
         <v>23110220447</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
         <v>23110220449</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
         <v>23110220450</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D53" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
         <v>23110220451</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
         <v>23110220452</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D55" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
         <v>23110220453</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
         <v>23110220454</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
         <v>23110220455</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
         <v>23110220456</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
         <v>23110220457</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D60" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
         <v>24110220456</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D61" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
         <v>24110220457</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D62" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1">
         <v>24110220458</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1">
         <v>24110220459</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D64" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
         <v>24110220461</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D65" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1">
         <v>24110220462</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSBTE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C3DE4-4DE5-4A18-9EE6-74FADAD43D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99701CC9-FD8E-498E-9021-A8320FE8F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90DD5EF6-5DDC-42E6-A950-064E031C2B87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="206">
   <si>
     <t>AVHAD BHAVIKA SACHIN</t>
   </si>
@@ -246,13 +246,421 @@
   </si>
   <si>
     <t>EnrollmentNumber</t>
+  </si>
+  <si>
+    <t>KAMBLE SUDEEP DIGAMBAR</t>
+  </si>
+  <si>
+    <t>AHIRE VIPASHYANA BHIKAJI</t>
+  </si>
+  <si>
+    <t>ATHAWALE PRITAM SANTOSH</t>
+  </si>
+  <si>
+    <t>AVHAD MANISH NARENDRA</t>
+  </si>
+  <si>
+    <t>BHADANGE PREM BHAGWAN</t>
+  </si>
+  <si>
+    <t>BHAKARE SIDDHI DUNDARAM</t>
+  </si>
+  <si>
+    <t>BHOSALE ADITYA ARVIND</t>
+  </si>
+  <si>
+    <t>BHOSALE RUTUJA INDRAJEET</t>
+  </si>
+  <si>
+    <t>BORSE SIDDHI DNYANESHWAR</t>
+  </si>
+  <si>
+    <t>DINKAR SAKSHI MADHUKAR</t>
+  </si>
+  <si>
+    <t>DONGARE NETRA RAJESH</t>
+  </si>
+  <si>
+    <t>FARDE SAMIKSHA SATISH</t>
+  </si>
+  <si>
+    <t>GHANGHAV PRINCY PRAKASH</t>
+  </si>
+  <si>
+    <t>GHORAD VEDIKA DILIP</t>
+  </si>
+  <si>
+    <t>GHUDE SAHIL SANJAY</t>
+  </si>
+  <si>
+    <t>GOLE DIKSHA SAINATH</t>
+  </si>
+  <si>
+    <t>GOSAVI PRANALI SUDARSHAN</t>
+  </si>
+  <si>
+    <t>JADHAV ASMITA ASHOK</t>
+  </si>
+  <si>
+    <t>JADHAV SHREYA SADASHIV</t>
+  </si>
+  <si>
+    <t>JAWALE DEEP JITENDRA</t>
+  </si>
+  <si>
+    <t>KAMBLE ABHAY ASHOK</t>
+  </si>
+  <si>
+    <t>KHAN AMMAR LUKMAN</t>
+  </si>
+  <si>
+    <t>KHAN MOHD ATHAR MAZHAR</t>
+  </si>
+  <si>
+    <t>KHANVILKAR SHREYA VINOD</t>
+  </si>
+  <si>
+    <t>KOTALWAR SAGAR RAJENDRA</t>
+  </si>
+  <si>
+    <t>KUMBHAR BHUSHAN MAHESH</t>
+  </si>
+  <si>
+    <t>MHASE SIDDHARTH YASHWANT</t>
+  </si>
+  <si>
+    <t>MOHIT SONAWANE DEEPAK</t>
+  </si>
+  <si>
+    <t>MOHITE ARYAN ABHAY</t>
+  </si>
+  <si>
+    <t>MONDULA RAHUL BALU</t>
+  </si>
+  <si>
+    <t>NATHE KAUSTUBH GORAKH</t>
+  </si>
+  <si>
+    <t>PANDHARE VRUSHAL ARUN</t>
+  </si>
+  <si>
+    <t>PANSARE BHUSHAN BHAU</t>
+  </si>
+  <si>
+    <t>PATIL KRUPA NITIN</t>
+  </si>
+  <si>
+    <t>PATIL NISHANT NAMDEV</t>
+  </si>
+  <si>
+    <t>PATIL SANIKA TUSHAR</t>
+  </si>
+  <si>
+    <t>PATIL SARTHAK BAPU</t>
+  </si>
+  <si>
+    <t>PATIL SRUSHTI MAHADEV</t>
+  </si>
+  <si>
+    <t>PATKI YASH RAHUL</t>
+  </si>
+  <si>
+    <t>PATOLE JAYESH DIPAK</t>
+  </si>
+  <si>
+    <t>PATOLE SOHAM PRASHANT</t>
+  </si>
+  <si>
+    <t>PAWAR SAURABH ANIL</t>
+  </si>
+  <si>
+    <t>PED OMKAR RAMKISHAN</t>
+  </si>
+  <si>
+    <t>RATHOD RISHIKESH DHIRAJ</t>
+  </si>
+  <si>
+    <t>RAUT GANESH SURYAKANT</t>
+  </si>
+  <si>
+    <t>RERA HEMANGI PANDURANG</t>
+  </si>
+  <si>
+    <t>RODGE NANDKESHWAR SANTOSH</t>
+  </si>
+  <si>
+    <t>ROTHE KASHMIRA RAJESH</t>
+  </si>
+  <si>
+    <t>SANAP SAKSHI SAMPAT</t>
+  </si>
+  <si>
+    <t>SAVARATKAR SRUSHTI SANTRAM</t>
+  </si>
+  <si>
+    <t>SHAIKH SADIK IRSHAD</t>
+  </si>
+  <si>
+    <t>SHELAKE BHAKTI VIKAS</t>
+  </si>
+  <si>
+    <t>SHELAVALE BHUSHAN DATTATRAY</t>
+  </si>
+  <si>
+    <t>SHINDE OMKAR DILIP</t>
+  </si>
+  <si>
+    <t>SHINDE PRANJAL SHAILESH</t>
+  </si>
+  <si>
+    <t>SURYAWANSHI SAI ASHOK</t>
+  </si>
+  <si>
+    <t>THOMBARE SUJAL SEVAK</t>
+  </si>
+  <si>
+    <t>VEKHANDE DHANASHREE NARESH</t>
+  </si>
+  <si>
+    <t>VISHE ANAND SANTOSH</t>
+  </si>
+  <si>
+    <t>VISHE DIPAK BHANUDAS</t>
+  </si>
+  <si>
+    <t>VISHE KARTIKI BARKU</t>
+  </si>
+  <si>
+    <t>WAGH ASHOK DIGAMBER</t>
+  </si>
+  <si>
+    <t>GOPALE NAGSEN GAUTAM</t>
+  </si>
+  <si>
+    <t>GUPTA ROHAN TRIBHUVAN</t>
+  </si>
+  <si>
+    <t>PATIL DHANASHREE SUDHIR</t>
+  </si>
+  <si>
+    <t>CHAUDHARI VINAYAK OMKARDAS</t>
+  </si>
+  <si>
+    <t>PATIL LOVEKESH CHANDRAVDAN</t>
+  </si>
+  <si>
+    <t>MEHTRE OMKAR BHISHMACHARY</t>
+  </si>
+  <si>
+    <t>ANNU ADESH PANDEY</t>
+  </si>
+  <si>
+    <t>IT_FOURTHSEM</t>
+  </si>
+  <si>
+    <t>IT_FIRSTSEM</t>
+  </si>
+  <si>
+    <t>SANAP TANISHKA NITIN</t>
+  </si>
+  <si>
+    <t>CHAUDHARY MOHD ASJAD ISHAQUE</t>
+  </si>
+  <si>
+    <t>THORAT SAMRUDDHEE PRABHAKAR</t>
+  </si>
+  <si>
+    <t>SONUNE SUDIKSHA ANIL</t>
+  </si>
+  <si>
+    <t>PISAL SHRIRAJ ANIL</t>
+  </si>
+  <si>
+    <t>KOKATARE SHRADDHA YUVRAJ</t>
+  </si>
+  <si>
+    <t>BHOIR PRACHITI MANOHAR</t>
+  </si>
+  <si>
+    <t>TARE MANASVI BALU</t>
+  </si>
+  <si>
+    <t>SHELKE SHUBHAM SUDHIR</t>
+  </si>
+  <si>
+    <t>RANE VISHAL SUDHIR</t>
+  </si>
+  <si>
+    <t>DASAL SAKSHI DATTATRAY</t>
+  </si>
+  <si>
+    <t>AHIRE KOMAL SAMADHAN</t>
+  </si>
+  <si>
+    <t>PATIL JATIN SUDHIR</t>
+  </si>
+  <si>
+    <t>KARPE SHUBHANKAR DILIP</t>
+  </si>
+  <si>
+    <t>NICHITE RUTUJA PADMAKAR</t>
+  </si>
+  <si>
+    <t>KHAPRE SHRUTI SURAJ</t>
+  </si>
+  <si>
+    <t>PONGADE SOHAM VITTHAL</t>
+  </si>
+  <si>
+    <t>KADAV SHUBHAM DILIP</t>
+  </si>
+  <si>
+    <t>MANKAR DIVYANSHI SANTOSH</t>
+  </si>
+  <si>
+    <t>SHELAR SARTHAK ANIL</t>
+  </si>
+  <si>
+    <t>KHAN ARSH AKTAR</t>
+  </si>
+  <si>
+    <t>PADWAL HARSHALA NAGNATH</t>
+  </si>
+  <si>
+    <t>RAUT SIDDHI MOHAN</t>
+  </si>
+  <si>
+    <t>WAVALE MALHAR RAJESH</t>
+  </si>
+  <si>
+    <t>SABALE PRIYA KIRAN</t>
+  </si>
+  <si>
+    <t>WAINGANKAR ASHWINI SUNIL</t>
+  </si>
+  <si>
+    <t>SHELAKE TANISHA DATTATRAY</t>
+  </si>
+  <si>
+    <t>SANGALE MAYURESH CHANDRAKANT</t>
+  </si>
+  <si>
+    <t>BHOIR SHRAVAN SANJAY</t>
+  </si>
+  <si>
+    <t>UBALE SHUBHAM MADHAV</t>
+  </si>
+  <si>
+    <t>GANGAJI PRUTHVIRAJ PIRAJI</t>
+  </si>
+  <si>
+    <t>BHAMRE HARSHAL SUNIL</t>
+  </si>
+  <si>
+    <t>GAIKWAD HARSHADA JAIKUMAR</t>
+  </si>
+  <si>
+    <t>MOHAMMED ALI AKBAR BAGWAN</t>
+  </si>
+  <si>
+    <t>DANDEKAR DAKSHATA NILESH</t>
+  </si>
+  <si>
+    <t>TAYADE SAYALI RAJU</t>
+  </si>
+  <si>
+    <t>BHERE TANMAY SUNIL</t>
+  </si>
+  <si>
+    <t>TAMBADE HARSH MALHARI</t>
+  </si>
+  <si>
+    <t>SURYAVANSHI OMKAR RAJENDRA</t>
+  </si>
+  <si>
+    <t>GOTARANE JAY BHASKAR</t>
+  </si>
+  <si>
+    <t>LAMBORE SAHIL VIJAY</t>
+  </si>
+  <si>
+    <t>RATHOD SACHIN MARUTI</t>
+  </si>
+  <si>
+    <t>GAIKAR KHUSHAL DEVIDAS</t>
+  </si>
+  <si>
+    <t>SANCHITA ANIL PANDIT</t>
+  </si>
+  <si>
+    <t>THAKARE DIGVIJAY RAVINDRA</t>
+  </si>
+  <si>
+    <t>BHOIR NISARGA NITIN</t>
+  </si>
+  <si>
+    <t>WARGHADE VRUTIKA JAYWANT</t>
+  </si>
+  <si>
+    <t>KAMBLE SAMYEK DILIP</t>
+  </si>
+  <si>
+    <t>AMBHORKAR RITIKA ARCHANA</t>
+  </si>
+  <si>
+    <t>SHINGOLE VISHAL VITTHAL</t>
+  </si>
+  <si>
+    <t>MHASKE VINAY CHANDRAKANT</t>
+  </si>
+  <si>
+    <t>RASAL ARYAN LAXMAN</t>
+  </si>
+  <si>
+    <t>PATOLE PURVA AJIT</t>
+  </si>
+  <si>
+    <t>JACHAK SURAJ BAPUSAHEB</t>
+  </si>
+  <si>
+    <t>VISHWAKARMA ANMOL AKHILESH</t>
+  </si>
+  <si>
+    <t>KHAIRNAR AYUSH MUKESH</t>
+  </si>
+  <si>
+    <t>SAKNURE LAXMAN NAGNATH</t>
+  </si>
+  <si>
+    <t>BARDE SAMEER SHERKHA</t>
+  </si>
+  <si>
+    <t>GURAV SANHAVI SANDIP</t>
+  </si>
+  <si>
+    <t>TIKUDE SHREYASH UTTAM</t>
+  </si>
+  <si>
+    <t>GORE KUNDAN ARUN</t>
+  </si>
+  <si>
+    <t>CHANDANE TANISHK DEEPAK</t>
+  </si>
+  <si>
+    <t>RATHOD JAYESH ANKUSH</t>
+  </si>
+  <si>
+    <t>SHIRKE SAMIKSHA LAHU</t>
+  </si>
+  <si>
+    <t>MHASKAR RIYA JAYPRAKASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +701,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +726,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -325,11 +749,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,10 +785,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,17 +1129,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCF43-5B25-4DC7-A125-BEC5ACEEF9B7}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -707,7 +1152,7 @@
       <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -721,7 +1166,7 @@
       <c r="C2" s="1">
         <v>23110220391</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -735,7 +1180,7 @@
       <c r="C3" s="1">
         <v>23110220392</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -749,7 +1194,7 @@
       <c r="C4" s="1">
         <v>23110220393</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -763,7 +1208,7 @@
       <c r="C5" s="1">
         <v>23110220394</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -777,7 +1222,7 @@
       <c r="C6" s="1">
         <v>23110220396</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -791,7 +1236,7 @@
       <c r="C7" s="1">
         <v>23110220397</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -805,7 +1250,7 @@
       <c r="C8" s="1">
         <v>23110220398</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -819,7 +1264,7 @@
       <c r="C9" s="1">
         <v>23110220399</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -833,7 +1278,7 @@
       <c r="C10" s="1">
         <v>23110220400</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -847,7 +1292,7 @@
       <c r="C11" s="1">
         <v>23110220401</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -861,7 +1306,7 @@
       <c r="C12" s="1">
         <v>23110220402</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -875,7 +1320,7 @@
       <c r="C13" s="1">
         <v>23110220403</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -889,7 +1334,7 @@
       <c r="C14" s="1">
         <v>23110220404</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -903,7 +1348,7 @@
       <c r="C15" s="1">
         <v>23110220405</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -917,7 +1362,7 @@
       <c r="C16" s="1">
         <v>23110220406</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -931,7 +1376,7 @@
       <c r="C17" s="1">
         <v>23110220407</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -945,7 +1390,7 @@
       <c r="C18" s="1">
         <v>23110220408</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -959,7 +1404,7 @@
       <c r="C19" s="1">
         <v>23110220409</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -973,7 +1418,7 @@
       <c r="C20" s="1">
         <v>23110220411</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -987,7 +1432,7 @@
       <c r="C21" s="1">
         <v>23110220412</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1001,7 +1446,7 @@
       <c r="C22" s="1">
         <v>23110220414</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1015,7 +1460,7 @@
       <c r="C23" s="1">
         <v>23110220416</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1029,7 +1474,7 @@
       <c r="C24" s="1">
         <v>23110220418</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1043,7 +1488,7 @@
       <c r="C25" s="1">
         <v>23110220419</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1057,7 +1502,7 @@
       <c r="C26" s="1">
         <v>23110220420</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1071,7 +1516,7 @@
       <c r="C27" s="1">
         <v>23110220421</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1085,7 +1530,7 @@
       <c r="C28" s="1">
         <v>23110220422</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1099,7 +1544,7 @@
       <c r="C29" s="1">
         <v>23110220423</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1113,7 +1558,7 @@
       <c r="C30" s="1">
         <v>23110220424</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1127,7 +1572,7 @@
       <c r="C31" s="1">
         <v>23110220425</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1141,7 +1586,7 @@
       <c r="C32" s="1">
         <v>23110220426</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1155,7 +1600,7 @@
       <c r="C33" s="1">
         <v>23110220428</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1169,7 +1614,7 @@
       <c r="C34" s="1">
         <v>23110220429</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1183,7 +1628,7 @@
       <c r="C35" s="1">
         <v>23110220430</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1197,7 +1642,7 @@
       <c r="C36" s="1">
         <v>23110220431</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1211,7 +1656,7 @@
       <c r="C37" s="1">
         <v>23110220432</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1225,7 +1670,7 @@
       <c r="C38" s="1">
         <v>23110220433</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1239,7 +1684,7 @@
       <c r="C39" s="1">
         <v>23110220434</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1253,7 +1698,7 @@
       <c r="C40" s="1">
         <v>23110220435</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1267,7 +1712,7 @@
       <c r="C41" s="1">
         <v>23110220437</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1281,7 +1726,7 @@
       <c r="C42" s="1">
         <v>23110220438</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1295,7 +1740,7 @@
       <c r="C43" s="1">
         <v>23110220439</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1309,7 +1754,7 @@
       <c r="C44" s="1">
         <v>23110220440</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1323,7 +1768,7 @@
       <c r="C45" s="1">
         <v>23110220441</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1337,7 +1782,7 @@
       <c r="C46" s="1">
         <v>23110220442</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1351,7 +1796,7 @@
       <c r="C47" s="1">
         <v>23110220443</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1365,7 +1810,7 @@
       <c r="C48" s="1">
         <v>23110220444</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1379,7 +1824,7 @@
       <c r="C49" s="1">
         <v>23110220445</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1393,7 +1838,7 @@
       <c r="C50" s="1">
         <v>23110220446</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1407,7 +1852,7 @@
       <c r="C51" s="1">
         <v>23110220447</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1421,7 +1866,7 @@
       <c r="C52" s="1">
         <v>23110220449</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1435,7 +1880,7 @@
       <c r="C53" s="1">
         <v>23110220450</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1449,7 +1894,7 @@
       <c r="C54" s="1">
         <v>23110220451</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1463,7 +1908,7 @@
       <c r="C55" s="1">
         <v>23110220452</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1477,7 +1922,7 @@
       <c r="C56" s="1">
         <v>23110220453</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1491,7 +1936,7 @@
       <c r="C57" s="1">
         <v>23110220454</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1505,7 +1950,7 @@
       <c r="C58" s="1">
         <v>23110220455</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1519,7 +1964,7 @@
       <c r="C59" s="1">
         <v>23110220456</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1533,7 +1978,7 @@
       <c r="C60" s="1">
         <v>23110220457</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1547,7 +1992,7 @@
       <c r="C61" s="1">
         <v>24110220456</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1561,7 +2006,7 @@
       <c r="C62" s="1">
         <v>24110220457</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1575,7 +2020,7 @@
       <c r="C63" s="1">
         <v>24110220458</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1589,7 +2034,7 @@
       <c r="C64" s="1">
         <v>24110220459</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1603,7 +2048,7 @@
       <c r="C65" s="1">
         <v>24110220461</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1617,8 +2062,1884 @@
       <c r="C66" s="1">
         <v>24110220462</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>67</v>
+      <c r="D66" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="6">
+        <v>23110220417</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6">
+        <v>24110220391</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="6">
+        <v>24110220392</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>4</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="6">
+        <v>24110220393</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>5</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="6">
+        <v>24110220394</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>6</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="6">
+        <v>24110220396</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>7</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="6">
+        <v>24110220397</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>8</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="6">
+        <v>24110220398</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>9</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="6">
+        <v>24110220399</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>10</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="6">
+        <v>24110220400</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>11</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="6">
+        <v>24110220401</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="6">
+        <v>24110220403</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>13</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="6">
+        <v>24110220404</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>14</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="6">
+        <v>24110220406</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>15</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="6">
+        <v>24110220407</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>16</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="6">
+        <v>24110220408</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>17</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="6">
+        <v>24110220409</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>18</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="6">
+        <v>24110220410</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>19</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="6">
+        <v>24110220411</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>20</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="6">
+        <v>24110220412</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>21</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="6">
+        <v>24110220413</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>22</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="6">
+        <v>24110220415</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>23</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="6">
+        <v>24110220416</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>24</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="6">
+        <v>24110220417</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>25</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="6">
+        <v>24110220418</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>26</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="6">
+        <v>24110220419</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>27</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="6">
+        <v>24110220420</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>28</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="6">
+        <v>24110220421</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>29</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="6">
+        <v>24110220422</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>30</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="6">
+        <v>24110220423</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>31</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="6">
+        <v>24110220424</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>32</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="6">
+        <v>24110220425</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>33</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="6">
+        <v>24110220426</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>34</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="6">
+        <v>24110220427</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>35</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="6">
+        <v>24110220428</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>36</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="6">
+        <v>24110220429</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>37</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="6">
+        <v>24110220430</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>38</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="6">
+        <v>24110220431</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>39</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="6">
+        <v>24110220432</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>40</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="6">
+        <v>24110220433</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>41</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="6">
+        <v>24110220434</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>42</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="6">
+        <v>24110220435</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>43</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="6">
+        <v>24110220436</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>44</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="6">
+        <v>24110220437</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>45</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="6">
+        <v>24110220438</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>46</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="6">
+        <v>24110220439</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>47</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="6">
+        <v>24110220440</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>48</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="6">
+        <v>24110220441</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>49</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="6">
+        <v>24110220442</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>50</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="6">
+        <v>24110220443</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>51</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="6">
+        <v>24110220444</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>52</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="6">
+        <v>24110220445</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>53</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="6">
+        <v>24110220446</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>54</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="6">
+        <v>24110220447</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>55</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="6">
+        <v>24110220448</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>56</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="6">
+        <v>24110220449</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>57</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="6">
+        <v>24110220450</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>58</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="6">
+        <v>24110220451</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>59</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" s="6">
+        <v>24110220452</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>60</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" s="6">
+        <v>24110220453</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>61</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="6">
+        <v>24110220454</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>62</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" s="6">
+        <v>24110220455</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>63</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" s="6">
+        <v>25110220391</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>64</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="6">
+        <v>25110220392</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>65</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="6">
+        <v>25110220393</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>66</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="6">
+        <v>25110220394</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>67</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="6">
+        <v>25110220395</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>68</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" s="6">
+        <v>25110220396</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>69</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="6">
+        <v>25110220397</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>1</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="8">
+        <v>25110220398</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>2</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" s="8">
+        <v>25110220399</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>3</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="8">
+        <v>25110220400</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>4</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="8">
+        <v>25110220401</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>5</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="8">
+        <v>25110220402</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>6</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="8">
+        <v>25110220403</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>7</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="8">
+        <v>25110220404</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>8</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="8">
+        <v>25110220405</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>9</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="8">
+        <v>25110220406</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>10</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="8">
+        <v>25110220407</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>11</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="8">
+        <v>25110220408</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>12</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" s="8">
+        <v>25110220409</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>13</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="8">
+        <v>25110220410</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>14</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="8">
+        <v>25110220411</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>15</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="8">
+        <v>25110220412</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>16</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" s="8">
+        <v>25110220413</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>17</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="8">
+        <v>25110220414</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>18</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="8">
+        <v>25110220415</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>19</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" s="8">
+        <v>25110220416</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>20</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" s="8">
+        <v>25110220417</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>21</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" s="8">
+        <v>25110220418</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>22</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="8">
+        <v>25110220419</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7">
+        <v>23</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" s="8">
+        <v>25110220420</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>24</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" s="8">
+        <v>25110220421</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>25</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" s="8">
+        <v>25110220422</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>26</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" s="8">
+        <v>25110220423</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>27</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="8">
+        <v>25110220424</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>28</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163" s="8">
+        <v>25110220425</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>29</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" s="8">
+        <v>25110220426</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>30</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="8">
+        <v>25110220427</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>31</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166" s="8">
+        <v>25110220428</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>32</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="8">
+        <v>25110220429</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>33</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="8">
+        <v>25110220430</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>34</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" s="8">
+        <v>25110220431</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>35</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" s="8">
+        <v>25110220432</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>36</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="8">
+        <v>25110220433</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>37</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" s="8">
+        <v>25110220434</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>38</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" s="8">
+        <v>25110220435</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>39</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" s="8">
+        <v>25110220436</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>40</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" s="8">
+        <v>25110220437</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>41</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" s="8">
+        <v>25110220438</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="7">
+        <v>42</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" s="8">
+        <v>25110220439</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>43</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" s="8">
+        <v>25110220440</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
+        <v>44</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="8">
+        <v>25110220441</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>45</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="8">
+        <v>25110220442</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
+        <v>46</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="8">
+        <v>25110220443</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>47</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="8">
+        <v>25110220444</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>48</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="8">
+        <v>25110220445</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>49</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="8">
+        <v>25110220446</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>50</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" s="8">
+        <v>25110220447</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>51</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" s="8">
+        <v>25110220448</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>52</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187" s="8">
+        <v>25110220449</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>53</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" s="8">
+        <v>25110220450</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>54</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="8">
+        <v>25110220451</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>55</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" s="8">
+        <v>25110220452</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>56</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="8">
+        <v>25110220453</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>57</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" s="8">
+        <v>25110220454</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>58</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193" s="8">
+        <v>25110220455</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>59</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194" s="8">
+        <v>25110220456</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>60</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195" s="8">
+        <v>25110220457</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>61</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196" s="8">
+        <v>25110220458</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>62</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C197" s="8">
+        <v>25110220459</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>63</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" s="8">
+        <v>25110220460</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>64</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" s="8">
+        <v>25110220461</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>65</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200" s="8">
+        <v>25110220462</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
